--- a/eval/e26/regex_patterns.xlsx
+++ b/eval/e26/regex_patterns.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="40960" windowHeight="25080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -670,8 +670,8 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="620" topLeftCell="A19" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="H45" sqref="H45"/>
+      <pane ySplit="620" topLeftCell="A17" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
